--- a/Ore Sieving.xlsx
+++ b/Ore Sieving.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lundb\Documents\Curse\Minecraft\Instances\GregNothing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C76069EF-558B-46D9-876A-53945C0AE346}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3F5B4A9-73B0-4CC1-AB46-7237CA3DB27D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4CA4F8E1-113F-4782-952D-B72E17ADCEEB}"/>
+    <workbookView xWindow="19590" yWindow="3960" windowWidth="16755" windowHeight="15435" xr2:uid="{4CA4F8E1-113F-4782-952D-B72E17ADCEEB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overworld Veins" sheetId="1" r:id="rId1"/>
+    <sheet name="Nether Veins" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
   <si>
     <t>apatite</t>
   </si>
@@ -122,20 +126,101 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Rock Tier</t>
   </si>
   <si>
     <t>Mesh Tier</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>Stainless Steel</t>
+  </si>
+  <si>
+    <t>Gravel</t>
+  </si>
+  <si>
+    <t>Crushed Granite</t>
+  </si>
+  <si>
+    <t>Crushed Diorite</t>
+  </si>
+  <si>
+    <t>Crushed Andesite</t>
+  </si>
+  <si>
+    <t>Chance</t>
+  </si>
+  <si>
+    <t>Vein Weight</t>
+  </si>
+  <si>
+    <t>Ore Weight</t>
+  </si>
+  <si>
+    <t>Vein Density</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Vein Name</t>
+  </si>
+  <si>
+    <t>pentlandite</t>
+  </si>
+  <si>
+    <t>glauconite</t>
+  </si>
+  <si>
+    <t>bastnasite</t>
+  </si>
+  <si>
+    <t>neodymium</t>
+  </si>
+  <si>
+    <t>emerald</t>
+  </si>
+  <si>
+    <t>thorium</t>
+  </si>
+  <si>
+    <t>talc</t>
+  </si>
+  <si>
+    <t>uraninite</t>
+  </si>
+  <si>
+    <t>uranium</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>netherquartz</t>
+  </si>
+  <si>
+    <t>sulfur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,16 +228,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -160,17 +259,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -184,17 +316,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4ED99198-3CEB-46C1-A243-B3FFE964D3B7}" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
-  <autoFilter ref="A1:E29" xr:uid="{252F3487-4227-4EAE-8847-5FE79D7F338F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4ED99198-3CEB-46C1-A243-B3FFE964D3B7}" name="Table1" displayName="Table1" ref="A1:F29" totalsRowShown="0">
+  <autoFilter ref="A1:F29" xr:uid="{252F3487-4227-4EAE-8847-5FE79D7F338F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F29">
     <sortCondition ref="C1:C29"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6E49D39C-52A1-40BE-B1A8-3B9364F07DCB}" name="Name"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{6E49D39C-52A1-40BE-B1A8-3B9364F07DCB}" name="Vein Name"/>
     <tableColumn id="2" xr3:uid="{9771A076-889C-4404-B604-A2695C9C13E6}" name="Max Height"/>
     <tableColumn id="3" xr3:uid="{6CDEF7D8-2858-400B-A31A-2C9BDA93E253}" name="Weight"/>
     <tableColumn id="4" xr3:uid="{A59640D6-9F8F-49E4-909E-1B2745A723D8}" name="Rock Tier"/>
     <tableColumn id="5" xr3:uid="{8593AE67-FCE8-4A06-8EFE-9FAC7A290384}" name="Mesh Tier"/>
+    <tableColumn id="6" xr3:uid="{5E21C817-E9DA-4F06-90D3-A7D1245F0F19}" name="Done"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0B55D8D0-C2DD-47A8-9C05-E98BF6185647}" name="Table4" displayName="Table4" ref="A1:G9" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G9" xr:uid="{9326E7DE-D168-4156-A76D-3116E6F7F65A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
+    <sortCondition ref="C1:C9"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{A128E589-0EE3-4C40-A519-F911B7B7FB60}" name="Vein Name"/>
+    <tableColumn id="2" xr3:uid="{9961E2D3-3CDD-43BB-BAF4-5CEDBAF89248}" name="Density"/>
+    <tableColumn id="3" xr3:uid="{2F05081E-C07E-43AE-9418-1EC4562F603D}" name="Weight"/>
+    <tableColumn id="4" xr3:uid="{56CC2A00-E0D8-4C60-9A05-87B97F0A6581}" name="Max Height"/>
+    <tableColumn id="5" xr3:uid="{963FCAFA-C4F3-458B-96FC-FA52341F1460}" name="Rock Tier"/>
+    <tableColumn id="6" xr3:uid="{3EF1D14F-049C-4416-A84F-071FC6983925}" name="Mesh Tier"/>
+    <tableColumn id="7" xr3:uid="{F8829A18-FCBF-4DAC-9B58-E74D3F47F79E}" name="Done"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FEF614BC-4CA9-42AF-8CE7-320DCCA2DE39}" name="Table2" displayName="Table2" ref="A1:F17" totalsRowShown="0">
+  <autoFilter ref="A1:F17" xr:uid="{E9178440-66FE-4D44-955F-3E97985C27B0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{3DCFAB14-7A46-4D03-9906-276D4077972B}" name="Ore"/>
+    <tableColumn id="2" xr3:uid="{6D3669CC-E082-4D5C-BA60-B9A4169B20D4}" name="Chance">
+      <calculatedColumnFormula>C2*D2*E2*F2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{8DBFB56B-6F24-43F0-886D-A32BC97B76E9}" name="Vein Weight"/>
+    <tableColumn id="4" xr3:uid="{D294E1D2-E85E-4BCB-8CDD-1AA52D54E78F}" name="Vein Density"/>
+    <tableColumn id="5" xr3:uid="{18324D44-42AA-41F1-B599-C97FCB80FAEB}" name="Ore Weight"/>
+    <tableColumn id="6" xr3:uid="{4C9BA54A-D3F4-44E0-8F4C-CCFA96212F74}" name="Multiplier"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -497,22 +666,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF5ABF4-2F34-4671-818C-AEAFDFBA95A2}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
@@ -521,13 +692,16 @@
         <v>29</v>
       </c>
       <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -537,14 +711,17 @@
       <c r="C2">
         <v>20</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -554,14 +731,17 @@
       <c r="C3">
         <v>25</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -571,14 +751,17 @@
       <c r="C4">
         <v>25</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -588,14 +771,17 @@
       <c r="C5">
         <v>25</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -605,14 +791,17 @@
       <c r="C6">
         <v>25</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -622,14 +811,17 @@
       <c r="C7">
         <v>30</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -639,14 +831,17 @@
       <c r="C8">
         <v>40</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -656,14 +851,17 @@
       <c r="C9">
         <v>40</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -673,14 +871,17 @@
       <c r="C10">
         <v>40</v>
       </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -690,14 +891,17 @@
       <c r="C11">
         <v>45</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -707,14 +911,17 @@
       <c r="C12">
         <v>50</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -724,14 +931,17 @@
       <c r="C13">
         <v>55</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -741,14 +951,17 @@
       <c r="C14">
         <v>60</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -758,14 +971,17 @@
       <c r="C15">
         <v>60</v>
       </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -775,14 +991,17 @@
       <c r="C16">
         <v>60</v>
       </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -792,14 +1011,17 @@
       <c r="C17">
         <v>65</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -809,14 +1031,17 @@
       <c r="C18">
         <v>70</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -826,14 +1051,17 @@
       <c r="C19">
         <v>70</v>
       </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -843,14 +1071,17 @@
       <c r="C20">
         <v>70</v>
       </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -860,14 +1091,17 @@
       <c r="C21">
         <v>70</v>
       </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -877,14 +1111,17 @@
       <c r="C22">
         <v>70</v>
       </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -894,14 +1131,17 @@
       <c r="C23">
         <v>80</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -911,14 +1151,17 @@
       <c r="C24">
         <v>80</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -928,14 +1171,17 @@
       <c r="C25">
         <v>80</v>
       </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -945,14 +1191,17 @@
       <c r="C26">
         <v>80</v>
       </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -962,14 +1211,17 @@
       <c r="C27">
         <v>90</v>
       </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -979,14 +1231,17 @@
       <c r="C28">
         <v>95</v>
       </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -996,11 +1251,548 @@
       <c r="C29">
         <v>100</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BEB960-EA1D-4F33-99D8-12D9413A1C17}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0.4</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="E29">
-        <v>1</v>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7">
+        <v>130</v>
+      </c>
+      <c r="D7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.3</v>
+      </c>
+      <c r="C8">
+        <v>160</v>
+      </c>
+      <c r="D8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+      <c r="C9">
+        <v>170</v>
+      </c>
+      <c r="D9">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950DC740-6EC7-4CA5-87AE-C3F9519A45B0}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="A2:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <f>C2*D2*E2*F2</f>
+        <v>0.13935483870967744</v>
+      </c>
+      <c r="C2">
+        <f>30/155</f>
+        <v>0.19354838709677419</v>
+      </c>
+      <c r="D2">
+        <v>0.4</v>
+      </c>
+      <c r="E2">
+        <v>0.6</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <f>C3*D3*E3*F3</f>
+        <v>4.645161290322581E-2</v>
+      </c>
+      <c r="C3">
+        <f>30/155</f>
+        <v>0.19354838709677419</v>
+      </c>
+      <c r="D3">
+        <v>0.4</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <f>C4*D4*E4*F4</f>
+        <v>4.645161290322581E-2</v>
+      </c>
+      <c r="C4">
+        <f>30/155</f>
+        <v>0.19354838709677419</v>
+      </c>
+      <c r="D4">
+        <v>0.4</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B14" si="0">C5*D5*E5*F5</f>
+        <v>0.11612903225806451</v>
+      </c>
+      <c r="C5">
+        <f>40/155</f>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="D5">
+        <v>0.3</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>6.9677419354838691E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C11" si="1">40/155</f>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6">
+        <v>0.3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <f>SUM(J2:J5)</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>4.6451612903225803E-2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+      <c r="E7">
+        <v>0.2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.25</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.25</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.25</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.25</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.217741935483871</v>
+      </c>
+      <c r="C12">
+        <f>45/155</f>
+        <v>0.29032258064516131</v>
+      </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.1741935483870968</v>
+      </c>
+      <c r="C13">
+        <f>45/155</f>
+        <v>0.29032258064516131</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>0.4</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>4.3548387096774201E-2</v>
+      </c>
+      <c r="C14">
+        <f>45/155</f>
+        <v>0.29032258064516131</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
